--- a/biology/Botanique/Laitue_des_murailles/Laitue_des_murailles.xlsx
+++ b/biology/Botanique/Laitue_des_murailles/Laitue_des_murailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactuca muralis
 La laitue des murailles (Lactuca muralis), également appelée laitue des murs, est une espèce de plante à fleurs du genre Lactuca et de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée vivace haute de 30 à 100 cm aux tiges nues, souvent teintées de rouge. Les feuilles sont profondément divisées en lobes, le terminal, triangulaire et plus grand. Le pétiole embrasse la tige par des oreillettes dentées. Les feuilles supérieures entourent la tige par deux lobes.
 Les fleurs jaunes ligulées sont réunies le plus souvent par 5 dans de nombreux capitules entourés de bractées d'égale longueur, ressemblant ainsi à une fleur simple à 5 pétales. Floraison de mai à septembre.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce européo-caucasienne ; toute la France (plus rare dans l'Ouest), Corse.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts humides, clairières, parfois rocailles ombragées, des endroits frais, jusqu'à 1 800 m dans le Mercantour. En ville ou à la campagne, elle pousse à l’ombre des murs et plus rarement dans les friches et au bord des chemins.
 </t>
@@ -607,7 +625,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut consommer les jeunes feuilles en salade.
 Sur les autres projets Wikimedia :
